--- a/数据/mercado_products.xlsx
+++ b/数据/mercado_products.xlsx
@@ -1,105 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>global_price</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>attr_value</t>
-  </si>
-  <si>
-    <t>folder_id</t>
-  </si>
-  <si>
-    <t>folder_name</t>
-  </si>
-  <si>
-    <t>30-50pcs 12-17mm Medium Brown Barrel Beads for DIY Craf</t>
-  </si>
-  <si>
-    <t>6-10pcs 25-30mm  Holeless Wood Beads</t>
-  </si>
-  <si>
-    <t>['Premium medium brown barrel beads made from high-quality durable plastic', 'Smooth polished finish with consistent 11x12mm or 16x17mm sizing', 'Each pack contains either 30pcs (large) or 50pcs (small) beads', 'Perfect for jewelry making bracelets necklaces and keychains', 'Great for home decor projects like curtain tiebacks and wind chimes', 'Use for scrapbooking card making and other paper crafts', 'Uniform shape and size ensures professional-looking results', "Colorfast material won't fade or discolor over time", 'Carefully packaged to prevent damage during shipping', 'Store in dry cool place away from direct sunlight', 'From our family-owned craft supply business since 1995', 'Add to cart today']
-Available packs:
-12mm-50pcs
-17mm-30pcs</t>
-  </si>
-  <si>
-    <t>['Crafted from natural wood with a smooth matte finish for a rustic look', 'Each bead measures 25mm or 30mm in diameter with no holes for versatile use', 'Lightweight at approx 5g per bead making them easy to handle and craft with', 'Pack includes 6pcs of 30mm or 10pcs of 25mm beads for various project scales', 'Perfect for DIY home decor like table scatter centerpieces or wall hangings', 'Create unique jewelry by wrapping with wire or embedding in resin pendants', 'Use as educational counting tools or sensory play items for children', 'Made from sustainably sourced wood with consistent sizing and quality', 'Ships in protective packaging to prevent damage during transit', 'Store in dry conditions away from direct sunlight to maintain color', 'Handmade by skilled artisans supporting traditional woodworking techniques', 'Endless creative possibilities for crafters of all skill levels', 'Add to cart today']
-Available packs:
-25mm-10pcs
-30mm-6pcs</t>
-  </si>
-  <si>
-    <t>Beads(珠子)</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>Beads</t>
-  </si>
-  <si>
-    <t>合集-MT206-207</t>
-  </si>
-  <si>
-    <t>MT011-合并链接</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,101 +420,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>global_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>attr_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>folder_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>folder_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110-170pcs 2-3mm Dark Gold Square KC Color Beads</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Premium alloy material with a luxurious dark gold finish for a rich elegant look', 'Each bead measures 2-3mm square and comes in a pack of 110-170 pieces for ample crafting supply', 'Perfect for DIY jewelry like bracelets necklaces and earrings with a professional finish', 'Enhance scrapbooks photo frames and home decor with these shiny metallic accents', 'Create unique keychains bag charms and hair accessories for personalized style', 'Durable and tarnish-resistant beads ensure long-lasting beauty in all your creations', 'Consistent sizing and smooth edges for comfortable handling and seamless designs', 'Shipped in secure packaging to prevent damage and ensure your order arrives intact', 'Store in a dry place away from moisture to maintain the beads pristine condition', 'Proudly crafted by a brand dedicated to quality and creativity in craft supplies', 'Inspire your next project with these versatile high-quality dark gold beads', 'Add to cart today']
+Available packs:
+2mm-170pcs
+3mm-110pcs</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5853</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>合集 - HDS133-134</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>68pcs 6mm  Arc Peach Heart Beads for DIY Crafts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['High-quality alloy beads with a smooth polished finish for durability', 'Each bead measures 6mm with a horizontal hole arc peach heart design', 'Pack includes 68 pieces in assorted colors for versatile crafting', 'Perfect for jewelry making bracelets necklaces and earrings', 'Ideal for scrapbooking keychains and home decor projects', 'Vibrant colors add a pop of elegance to any creative work', 'Rigorously tested for consistent size shape and color quality', 'Ships securely packaged to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Inspired by a passion for unique and stylish DIY accessories', 'Enhance your crafting with these premium multicolor beads', 'Add to cart today']
+Available packs:
+6mm-68pcs</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>2424</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5856</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>合集 - HDS191</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>170-350pcs 3-8mm Dark Gold Spacer Beads Assortment</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['High-quality metal spacers in dark gold finish for elegant jewelry designs', 'Precise 3x1mm to 8x2mm sizes with consistent weight for balanced creations', 'Pack includes 170-350 pieces depending on selected size for ample supply', 'Ideal for DIY bracelets necklaces and earrings as stylish separators', 'Enhance beadwork with these spacers for professional-looking handmade jewelry', 'Durable construction resists tarnishing for long-lasting accessory projects', 'Perfect for mixed-metal designs when combined with other spacer colors', 'Each order carefully inspected to ensure flawless pieces arrive', 'Shipped securely in labeled bags for easy identification and storage', 'Store in dry conditions to maintain pristine metallic luster over time', 'From our artisan jewelry supply collection trusted by crafters worldwide', 'Versatile components for both beginners and professional jewelry makers', 'Add to cart today']
+Available packs:
+3mm-350pcs
+4mm-350pcs
+6mm-170pcs
+8mm-170pcs</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5862</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>合集 - HDS253-256</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10004</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40-90pcs 1-3mm Dark Gold Square Beads for DIY Jewelry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['High-quality alloy beads with a luxurious dark gold finish', 'Precise 1-3mm size and lightweight design for easy crafting', 'Pack includes 40-90 pieces depending on your selection', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Create unique keychains bag charms and home decor accents', 'Durable and tarnish-resistant for long-lasting beauty', 'Consistent sizing ensures professional-looking results', 'Ships securely packaged within 1-3 business days', 'Store in dry place to maintain shine and quality', 'Inspired by artisan craftsmanship and attention to detail', 'Elevate your creative projects with premium components', 'Add to cart today']
+Available packs:
+1mm-60pcs
+2mm-90pcs
+3mm-40pcs</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5863</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>合集 - HDS287-289</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10005</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>55-75pcs 6-8mm  Straight-Hole Curved Heart Beads</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['High-quality acrylic material with a smooth glossy finish for durability', 'Each bead measures 6-8mm with a straight hole for easy stringing', 'Pack includes 55-75pcs of assorted colors for versatile crafting', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Use in scrapbooking keychains or home decor for creative flair', 'Vibrant rainbow colors add a pop to any handmade project', 'Lightweight design ensures comfortable wear in jewelry pieces', 'Rigorously inspected for consistent size shape and color quality', 'Fast shipping with secure packaging to protect your beads', 'Store in a dry place to maintain color and prevent scratches', 'Our brand focuses on providing affordable crafting supplies for all', 'Add to cart today and start creating your unique designs']
+Available packs:
+6mm-75pcs
+8mm-55pcs</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2870</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5865</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>合集 - HDS315-316</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10006</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>48-62pcs 6-8mm Multicolor Rice Beads for DIY Crafts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['High-quality resin rice beads with a smooth glossy finish', 'Exact size 4x6mm or 5x8mm and weight 0.1g per bead', 'Pack includes 48-62 pieces per set in assorted colors', 'Perfect for jewelry making bracelets necklaces and earrings', 'Ideal for embellishing clothing accessories and home decor', 'Create unique keychains bookmarks and hair accessories', 'Vibrant colors add a pop of shine to any project', 'Durable and lightweight for long-lasting creative use', 'Carefully inspected for consistent size and flawless finish', 'Ships securely packed to prevent damage during transit', 'Store in a dry place to maintain color and quality', 'Add to cart today and start your next creative project']
+Available packs:
+6mm-62pcs
+8mm-48pcs</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5866</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>合集 - HDS317-318</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10007</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>40-90pcs 1-3mm  Straight-Hole Cube Beads</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Premium acrylic material with smooth polished finish for durability', 'Exact size 6x1mm or 4x2mm options weight approx 0.1g per bead', 'Pack includes 40-90 pieces of vibrant multicolor cube beads', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Create keychains bag charms or decorative art projects', 'Lightweight yet sturdy beads with consistent straight holes', 'Quality checked for uniform size color and smooth edges', 'Ships in protective packaging to prevent damage', 'Store in dry cool place to maintain color vibrancy', 'Handcrafted by artisans focusing on creative bead designs', 'Mix and match colors for unique personalized creations', 'Add to cart today']
+Available packs:
+1mm-60pcs
+2mm-90pcs
+3mm-40pcs</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5867</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>合集 - HDS323-325</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10008</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80-190pcs 2-5mm  Antique Bead Spacer Assortment</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['High-quality alloy with antique finish for vintage charm', 'Exact size 2-5mm per bead and pack includes 80-190pcs', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Enhance scrapbooking card making and mixed media projects', 'Mix colors for unique handmade gifts and party favors', 'Durable and lightweight beads for long-lasting creations', 'Each bead inspected for consistent size and finish', 'Fast shipping with secure packaging to protect your order', 'Store in a dry place to maintain bead quality', 'Inspired by timeless designs for creative expression', 'A trusted brand for crafters and jewelry makers', 'Start your next project with these versatile beads Add to cart today']
+Available packs:
+2mm-190pcs
+3mm-130pcs
+4mm-100pcs
+5mm-80pcs</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5868</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>合集 - HDS348-351</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10009</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180-200pcs 2-3mm  Antique Beads &amp; Rounded Cubes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['High-quality resin beads with antique finish for durability and elegance', 'Exact sizes: 2mm beads or 3x3x2mm/4x2x2mm cubes, 180-200 pieces per pack', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Enhance scrapbooks greeting cards and home decor projects', 'Glow iridescent and metallic options for creative versatility', 'Consistent sizing and smooth edges for comfortable crafting', 'Ships securely packaged to prevent damage during transit', 'Store in a dry cool place to maintain color and quality', 'Handcrafted with attention to detail for premium results', 'Our brand focuses on affordable luxury for craft enthusiasts', 'Ideal for gifts party favors and personalized accessories', 'Add to cart today']
+Available packs:
+2mm-180pcs
+3mm-200pcs</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5869</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>合集 - HDS504-506</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>36-178pcs 2-10mm Multicolor Round Bead Strands</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Premium Grade A natural beads or K-color white gold KC-color options', 'Precisely sized 2mm 3mm 4mm 6mm 8mm 10mm for versatile crafting', 'Each strand contains 36-178 beads depending on size selected', 'Ideal for jewelry making bracelets necklaces and earrings', 'Perfect for DIY home decor like curtains lamps and wall art', 'Use for creative scrapbooking card making and gift wrapping accents', 'Smooth polished finish ensures comfortable wear and elegant look', 'Consistent sizing and hole diameter for easy stringing', 'Shipped securely in labeled resealable bags for organization', 'Store in dry cool place to maintain color and quality', 'Hand-selected beads with strict quality control standards', 'Elevate your craft projects with these premium beads Add to cart today']
+Available packs:
+2mm-175pcs
+2mm-178pcs
+3mm-110pcs
+3mm-115pcs
+4mm-100pcs
+4mm-95pcs
+6mm-60pcs
+6mm-70pcs
+8mm-50pcs
+8mm-47pcs
+10mm-40pcs
+10mm-36pcs</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5870</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>合集 - HDS507-528</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10011</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>365-390pcs 2-4mm Multicolor Plum Blossom Pieces</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['High-quality metal plum blossom pieces with a polished finish', 'Each piece measures 2-4mm in size and comes in vibrant multicolor options', 'Pack includes 365-390pcs perfect for bulk crafting projects', 'Ideal for DIY jewelry keychains and home decor embellishments', 'Create unique bookmarks hairpins or custom gift toppers', 'Durable and lightweight for versatile creative applications', 'Each batch inspected for consistent size and color quality', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry container to maintain shine and prevent tarnishing', 'Inspired by traditional craftsmanship for modern creative expression', 'Endless possibilities for artists crafters and makers of all levels', 'Add to cart today']
+Available packs:
+2mm-390pcs
+3mm-365pcs
+4mm-385pcs</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5871</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>合集 - HDS512-514</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10012</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>175-250pcs 4-6mm Multicolor Triangle Spacer Assortment</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['High-quality metal triangle spacers with a smooth polished finish', 'Precise 4x1mm or 6x2mm size options each pack weighs approx 50g', 'Pack includes 175-250 pieces for ample DIY jewelry making supplies', 'Perfect for bracelets necklaces and earrings to add unique accents', 'Use in keychains zipper pulls or decorative crafts for creative flair', 'Multicolor assortment offers versatile matching with any design style', 'Durable and tarnish-resistant materials ensure long-lasting wear', 'Carefully inspected for consistent sizing and flawless appearance', 'Ships securely packaged within 1-3 business days after ordering', 'Store in dry cool place to maintain shine and prevent oxidation', 'Our brand focuses on premium affordable jewelry-making components', 'Add to cart today']
+Available packs:
+4mm-250pcs
+6mm-175pcs</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5874</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>合集 - HDS522-523</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10013</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>120-180pcs 6-8mm  Thin Crushed Stone Mix</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Premium crushed stone with a smooth polished finish for a luxurious look', 'Each piece measures 5-8mm in size and weighs approx 0.1g for consistent quality', 'Pack includes 120-180pcs of assorted colors for versatile crafting options', 'Perfect for DIY jewelry resin art mosaics and home decor projects', 'Create stunning pendants earrings or decorative accents with these vibrant stones', 'Enhance your artwork with these lightweight yet durable crushed stones', 'Quality assured each stone is carefully inspected for chips or imperfections', 'Fast shipping with secure packaging to ensure your stones arrive safely', "Store in a dry place to maintain the stones' brilliance over time", 'From our family-owned business with 15 years of gemstone expertise', 'Inspire your creativity with this rainbow assortment of crushed stones', 'Add to cart today']
+Available packs:
+6mm-180pcs
+8mm-120pcs</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5875</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>合集 - HDS544-545</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10014</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>43-202pcs 2-10mm Sky Blue Beads for DIY Crafts</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['High-quality acrylic beads with a smooth glossy finish', 'Precise sizes range from 2mm to 10mm for versatile crafting', 'Each pack contains 43-202 pieces depending on bead size', 'Perfect for jewelry making bracelets necklaces and earrings', 'Great for embellishing clothing accessories and home decor', 'Use in kids crafts school projects and party decorations', 'Vibrant sky blue color adds pop to any creative project', 'Consistent sizing and uniform shapes for professional results', 'Shipped in secure packaging to prevent damage during transit', 'Store in dry container to maintain color and quality', 'From small hobbyists to professional crafters we serve all', 'Start your next creative project with these premium beads Add to cart today']
+Available packs:
+2mm-202pcs
+3mm-129pcs
+4mm-109pcs
+6mm-67pcs
+8mm-59pcs
+10mm-43pcs</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5876</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>合集 - HDS581-HDS950</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10015</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50-110pcs 4-10mm Dark Gold Star Charms for DIY Jewelry</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Premium zinc alloy with dark gold plating for a luxurious finish', 'Available in 4mm 6mm 8mm 10mm sizes each sold in packs of 50-110 pieces', 'Perfect for bracelets necklaces earrings and other jewelry projects', 'Create custom keychains bag charms or holiday ornaments', 'Lightweight yet durable with consistent sizing for uniform designs', 'Lead and nickel free safe for sensitive skin', 'Shipped in protective packaging to prevent tarnishing or damage', 'Store in dry cool place away from moisture to maintain shine', 'Inspired by celestial themes for dreamy creative expressions', 'Backed by our quality craftsmanship guarantee', 'Ideal for professional artisans and hobbyists alike', 'Add to cart today']
+Available packs:
+4mm-110pcs
+6mm-80pcs
+8mm-60pcs
+10mm-50pcs</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5877</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>合集 - HDS59-1-2-3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10016</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1pcs 10mm Multicolor Crushed Stone</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Premium crushed stone with a vibrant multicolor finish', 'Each piece measures exactly 10mm for consistent use', 'Pack includes 1 piece of high-quality decorative stone', 'Ideal for DIY jewelry resin art and home decor projects', 'Enhance vases candle holders or picture frames creatively', 'Lightweight yet durable for versatile crafting applications', 'Rigorously inspected for color consistency and smooth edges', 'Ships securely packaged to prevent damage in transit', 'Store in dry conditions to maintain brilliant colors', 'Family-owned business with 15 years stone craftsmanship', 'Perfect for adding sparkling accents to any creation', 'Add to cart today']
+Available packs:
+10mm-1pcs</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Beads(珠子)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5878</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>合集 - HDS93</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/数据/mercado_products.xlsx
+++ b/数据/mercado_products.xlsx
@@ -1,37 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>global_price</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>attr_value</t>
+  </si>
+  <si>
+    <t>folder_id</t>
+  </si>
+  <si>
+    <t>folder_name</t>
+  </si>
+  <si>
+    <t>100pcs 4mm Medium Amber AB Pointed Back Rhinestones</t>
+  </si>
+  <si>
+    <t>['Premium acrylic rhinestones with dazzling AB finish for maximum sparkle', 'Each stone measures 4mm with pointed back for secure adhesive application', 'Pack includes 100 pieces of consistent-sized Medium Amber AB gems', 'Perfect for DIY nail art phone cases jewelry and fashion accessories', 'Create eye-catching designs on clothing shoes hats and home decor items', 'Vibrant color and high shine elevate any craft project instantly', 'Quality checked for smooth edges and uniform shape in every batch', 'Ships in protective packaging to prevent damage during transit', 'Store in cool dry place away from direct sunlight to maintain shine', 'Backed by our 10-year heritage in premium crafting supplies', 'Mix and match with other colors for unlimited creative possibilities', 'Add to cart today']
+Available packs:
+4mm-100pcs</t>
+  </si>
+  <si>
+    <t>Beads</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>000-合集</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +98,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,110 +414,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>desc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>global_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>attr_value</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>folder_id</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>folder_name</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100pcs 4mm AB Pointed Back Rhinestones</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['Premium acrylic rhinestones with dazzling AB finish for maximum sparkle', 'Each stone measures 4mm in diameter with a pointed back for secure adhesion', 'Pack includes 100 pieces of uniform high-quality rhinestones in selected color', 'Perfect for DIY nail art phone cases jewelry and fashion accessories', 'Enhance scrapbooks photo frames or holiday decorations with these gems', 'Heat-resistant and colorfast for long-lasting vibrant shine', 'Rigorous quality control ensures consistent size shape and brilliance', 'Ships in protective packaging to prevent damage during transit', 'Store in cool dry place away from direct sunlight when not in use', 'Family-owned business specializing in craft supplies since 2005', 'Create stunning designs with these versatile multi-purpose rhinestones', 'Add to cart today']
-Available packs:
-4mm-100pcs</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Beads</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Generic</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Beads</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>4101</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>000-合集</t>
-        </is>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据/mercado_products.xlsx
+++ b/数据/mercado_products.xlsx
@@ -1,89 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>global_price</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>attr_value</t>
-  </si>
-  <si>
-    <t>folder_id</t>
-  </si>
-  <si>
-    <t>folder_name</t>
-  </si>
-  <si>
-    <t>100pcs 4mm Medium Amber AB Pointed Back Rhinestones</t>
-  </si>
-  <si>
-    <t>['Premium acrylic rhinestones with dazzling AB finish for maximum sparkle', 'Each stone measures 4mm with pointed back for secure adhesive application', 'Pack includes 100 pieces of consistent-sized Medium Amber AB gems', 'Perfect for DIY nail art phone cases jewelry and fashion accessories', 'Create eye-catching designs on clothing shoes hats and home decor items', 'Vibrant color and high shine elevate any craft project instantly', 'Quality checked for smooth edges and uniform shape in every batch', 'Ships in protective packaging to prevent damage during transit', 'Store in cool dry place away from direct sunlight to maintain shine', 'Backed by our 10-year heritage in premium crafting supplies', 'Mix and match with other colors for unlimited creative possibilities', 'Add to cart today']
-Available packs:
-4mm-100pcs</t>
-  </si>
-  <si>
-    <t>Beads</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>000-合集</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,72 +420,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>global_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>attr_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>folder_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>folder_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100pcs 4mm Medium Amber AB Rhombus Pointed Beads</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['High-quality acrylic material with dazzling AB finish for extra sparkle', 'Each bead measures 4mm in size and comes in a pack of 100 pieces', 'Perfect for DIY jewelry like earrings necklaces and bracelets', 'Use in scrapbooking card making or home decor projects', 'Add unique accents to hair accessories and keychains', 'Vibrant colors resist fading for long-lasting beauty', 'Consistent sizing ensures professional-looking results', 'Safely packaged in resealable bags for convenient storage', 'Lightweight design comfortable for all-day wear', 'Backed by our 100% satisfaction guarantee', 'Fast shipping with careful packaging protection', 'Store in cool dry place away from direct sunlight']
+Available packs:
+4mm-100pcs</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Generic</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Beads</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4101</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>000-合集</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/数据/mercado_products.xlsx
+++ b/数据/mercado_products.xlsx
@@ -486,14 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100pcs 4mm Medium Amber AB Rhombus Pointed Beads</t>
+          <t>35-520pcs 3-12mm Dark Gold Closed Rings for DIY Crafts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['High-quality acrylic material with dazzling AB finish for extra sparkle', 'Each bead measures 4mm in size and comes in a pack of 100 pieces', 'Perfect for DIY jewelry like earrings necklaces and bracelets', 'Use in scrapbooking card making or home decor projects', 'Add unique accents to hair accessories and keychains', 'Vibrant colors resist fading for long-lasting beauty', 'Consistent sizing ensures professional-looking results', 'Safely packaged in resealable bags for convenient storage', 'Lightweight design comfortable for all-day wear', 'Backed by our 100% satisfaction guarantee', 'Fast shipping with careful packaging protection', 'Store in cool dry place away from direct sunlight']
+          <t>['Premium zinc alloy material with sleek dark gold finish for durability', 'Available in 3mm to 12mm sizes with 35-520 pieces per pack', 'Each ring weighs 8g with exact counts listed by size option', 'Perfect for chainmaille jewelry armor and metal crafts', 'Create bracelets keychains bag charms and decorative accents', 'Consistent sizing and smooth edges for professional results', 'Quality tested for strength and colorfast metallic finish', 'Ships securely packaged with quantity clearly labeled', 'Store in dry conditions to prevent tarnishing over time', 'Artisan-crafted components for serious makers and crafters', 'Elevate your metalworking projects with versatile linking rings', 'Add to cart today']
 Available packs:
-4mm-100pcs</t>
+3mm-520pcs
+4mm-180pcs
+4mm-170pcs
+5mm-180pcs
+5mm-170pcs
+6mm-140pcs
+7mm-110pcs
+8mm-100pcs
+8mm-90pcs
+10mm-40pcs
+12mm-35pcs</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,11 +525,11 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4101</v>
+        <v>2904</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>000-合集</t>
+          <t>合集-FZ07-FZ08-FZ09-FZ010-FZ297-FZ298</t>
         </is>
       </c>
     </row>
